--- a/static/download/2022/RP3_FLT_EFF_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_FLT_EFF_2022_Jan_Dec.xlsx
@@ -389,7 +389,7 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>Belgium</t>
+    <t>Belgium-Luxembourg</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44944.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B2" s="37">
         <f>FLT_EFF_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B2" s="37">
         <f>FLT_EFF_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B2" s="37">
         <f>FLT_EFF_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3117,7 +3117,9 @@
       <c r="C6" s="91">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="92"/>
+      <c r="D6" s="92">
+        <v>0.0196</v>
+      </c>
       <c r="E6" s="92">
         <v>0.0209</v>
       </c>
@@ -3149,7 +3151,9 @@
       <c r="C8" s="92">
         <v>0.0379</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="91">
+        <v>0.0225</v>
+      </c>
       <c r="E8" s="92">
         <v>0.0328</v>
       </c>
@@ -3165,7 +3169,9 @@
       <c r="C9" s="92">
         <v>0.0163</v>
       </c>
-      <c r="D9" s="91"/>
+      <c r="D9" s="91">
+        <v>0.0146</v>
+      </c>
       <c r="E9" s="92">
         <v>0.0149</v>
       </c>
@@ -3181,7 +3187,9 @@
       <c r="C10" s="92">
         <v>0.0593</v>
       </c>
-      <c r="D10" s="91"/>
+      <c r="D10" s="91">
+        <v>0.0384</v>
+      </c>
       <c r="E10" s="92">
         <v>0.0421</v>
       </c>
@@ -3197,7 +3205,9 @@
       <c r="C11" s="92">
         <v>0.0356</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="91">
+        <v>0.0205</v>
+      </c>
       <c r="E11" s="92">
         <v>0.0255</v>
       </c>
@@ -3213,7 +3223,9 @@
       <c r="C12" s="92">
         <v>0.0245</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="91">
+        <v>0.0114</v>
+      </c>
       <c r="E12" s="92">
         <v>0.0123</v>
       </c>
@@ -3229,7 +3241,9 @@
       <c r="C13" s="91">
         <v>0.0576</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="91">
+        <v>0.0122</v>
+      </c>
       <c r="E13" s="92">
         <v>0.0546</v>
       </c>
@@ -3245,7 +3259,9 @@
       <c r="C14" s="91">
         <v>0.0367</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="91">
+        <v>0.0088</v>
+      </c>
       <c r="E14" s="91">
         <v>0.0328</v>
       </c>
@@ -3261,7 +3277,9 @@
       <c r="C15" s="92">
         <v>0.0552</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="91">
+        <v>0.0283</v>
+      </c>
       <c r="E15" s="92">
         <v>0.0328</v>
       </c>
@@ -3277,7 +3295,9 @@
       <c r="C16" s="92">
         <v>0.0505</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="91">
+        <v>0.023</v>
+      </c>
       <c r="E16" s="92">
         <v>0.0276</v>
       </c>
@@ -3293,7 +3313,9 @@
       <c r="C17" s="92">
         <v>0.0304</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="91">
+        <v>0.0192</v>
+      </c>
       <c r="E17" s="92">
         <v>0.0233</v>
       </c>
@@ -3309,7 +3331,9 @@
       <c r="C18" s="92">
         <v>0.0304</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="91">
+        <v>0.0149</v>
+      </c>
       <c r="E18" s="92">
         <v>0.0217</v>
       </c>
@@ -3325,7 +3349,9 @@
       <c r="C19" s="92">
         <v>0.0175</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="91">
+        <v>0.0113</v>
+      </c>
       <c r="E19" s="92">
         <v>0.0112</v>
       </c>
@@ -3341,7 +3367,9 @@
       <c r="C20" s="92">
         <v>0.0386</v>
       </c>
-      <c r="D20" s="91"/>
+      <c r="D20" s="91">
+        <v>0.0267</v>
+      </c>
       <c r="E20" s="92">
         <v>0.0298</v>
       </c>
@@ -3357,7 +3385,9 @@
       <c r="C21" s="92">
         <v>0.0634</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="91">
+        <v>0.0125</v>
+      </c>
       <c r="E21" s="92">
         <v>0.0626</v>
       </c>
@@ -3373,7 +3403,9 @@
       <c r="C22" s="92">
         <v>0.1279</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="91">
+        <v>0.0192</v>
+      </c>
       <c r="E22" s="92">
         <v>0.1221</v>
       </c>
@@ -3389,7 +3421,9 @@
       <c r="C23" s="92">
         <v>0.0149</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="91">
+        <v>0.018</v>
+      </c>
       <c r="E23" s="92">
         <v>0.019</v>
       </c>
@@ -3405,7 +3439,9 @@
       <c r="C24" s="92">
         <v>0.0483</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="91">
+        <v>0.0262</v>
+      </c>
       <c r="E24" s="92">
         <v>0.0304</v>
       </c>
@@ -3421,7 +3457,9 @@
       <c r="C25" s="92">
         <v>0.0226</v>
       </c>
-      <c r="D25" s="91"/>
+      <c r="D25" s="91">
+        <v>0.0155</v>
+      </c>
       <c r="E25" s="92">
         <v>0.0132</v>
       </c>
@@ -3437,7 +3475,9 @@
       <c r="C26" s="92">
         <v>0.0686</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="91">
+        <v>0.0165</v>
+      </c>
       <c r="E26" s="92">
         <v>0.0479</v>
       </c>
@@ -3453,7 +3493,9 @@
       <c r="C27" s="92">
         <v>0.018</v>
       </c>
-      <c r="D27" s="91"/>
+      <c r="D27" s="91">
+        <v>0.018</v>
+      </c>
       <c r="E27" s="92">
         <v>0.0152</v>
       </c>
@@ -3469,7 +3511,9 @@
       <c r="C28" s="92">
         <v>0.0384</v>
       </c>
-      <c r="D28" s="91"/>
+      <c r="D28" s="91">
+        <v>0.0205</v>
+      </c>
       <c r="E28" s="92">
         <v>0.0336</v>
       </c>
@@ -3485,7 +3529,9 @@
       <c r="C29" s="92">
         <v>0.0532</v>
       </c>
-      <c r="D29" s="91"/>
+      <c r="D29" s="91">
+        <v>0.0213</v>
+      </c>
       <c r="E29" s="92">
         <v>0.0404</v>
       </c>
@@ -3501,7 +3547,9 @@
       <c r="C30" s="92">
         <v>0.0175</v>
       </c>
-      <c r="D30" s="91"/>
+      <c r="D30" s="91">
+        <v>0.0155</v>
+      </c>
       <c r="E30" s="92">
         <v>0.0172</v>
       </c>
@@ -3517,7 +3565,9 @@
       <c r="C31" s="92">
         <v>0.044</v>
       </c>
-      <c r="D31" s="91"/>
+      <c r="D31" s="91">
+        <v>0.0308</v>
+      </c>
       <c r="E31" s="92">
         <v>0.0332</v>
       </c>
@@ -3533,7 +3583,9 @@
       <c r="C32" s="92">
         <v>0.0266</v>
       </c>
-      <c r="D32" s="91"/>
+      <c r="D32" s="91">
+        <v>0.0105</v>
+      </c>
       <c r="E32" s="92">
         <v>0.017</v>
       </c>
@@ -3549,7 +3601,9 @@
       <c r="C33" s="92">
         <v>0.0732</v>
       </c>
-      <c r="D33" s="91"/>
+      <c r="D33" s="91">
+        <v>0.0395</v>
+      </c>
       <c r="E33" s="92">
         <v>0.0451</v>
       </c>
